--- a/artfynd/A 5617-2019.xlsx
+++ b/artfynd/A 5617-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112327587</v>
+        <v>112327588</v>
       </c>
       <c r="B2" t="n">
-        <v>96637</v>
+        <v>96652</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>641128</v>
+        <v>641133</v>
       </c>
       <c r="R2" t="n">
         <v>7163079</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112327352</v>
+        <v>112327353</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>641114</v>
+        <v>641135</v>
       </c>
       <c r="R3" t="n">
-        <v>7163079</v>
+        <v>7163078</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112327588</v>
+        <v>112327346</v>
       </c>
       <c r="B4" t="n">
-        <v>96637</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -906,25 +906,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>641133</v>
+        <v>641252</v>
       </c>
       <c r="R4" t="n">
         <v>7163079</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112327353</v>
+        <v>112327585</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>96652</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1013,25 +1013,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>641135</v>
+        <v>641127</v>
       </c>
       <c r="R5" t="n">
-        <v>7163078</v>
+        <v>7163079</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112327128</v>
+        <v>112327043</v>
       </c>
       <c r="B6" t="n">
-        <v>95687</v>
+        <v>96755</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1124,21 +1124,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>641144</v>
+        <v>641243</v>
       </c>
       <c r="R6" t="n">
-        <v>7163080</v>
+        <v>7163079</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112327585</v>
+        <v>112327128</v>
       </c>
       <c r="B7" t="n">
-        <v>96637</v>
+        <v>95701</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1231,21 +1231,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219790</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>641127</v>
+        <v>641144</v>
       </c>
       <c r="R7" t="n">
-        <v>7163079</v>
+        <v>7163080</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112327043</v>
+        <v>112327587</v>
       </c>
       <c r="B8" t="n">
-        <v>96740</v>
+        <v>96652</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1338,21 +1338,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221952</v>
+        <v>219790</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>641243</v>
+        <v>641128</v>
       </c>
       <c r="R8" t="n">
         <v>7163079</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112327584</v>
+        <v>112327586</v>
       </c>
       <c r="B9" t="n">
-        <v>96637</v>
+        <v>96652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>641245</v>
+        <v>641118</v>
       </c>
       <c r="R9" t="n">
         <v>7163079</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112327586</v>
+        <v>112327584</v>
       </c>
       <c r="B10" t="n">
-        <v>96637</v>
+        <v>96652</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>641118</v>
+        <v>641245</v>
       </c>
       <c r="R10" t="n">
         <v>7163079</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112327346</v>
+        <v>112327352</v>
       </c>
       <c r="B11" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>641252</v>
+        <v>641114</v>
       </c>
       <c r="R11" t="n">
         <v>7163079</v>

--- a/artfynd/A 5617-2019.xlsx
+++ b/artfynd/A 5617-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112327588</v>
+        <v>112327043</v>
       </c>
       <c r="B2" t="n">
-        <v>96652</v>
+        <v>96755</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>641133</v>
+        <v>641243</v>
       </c>
       <c r="R2" t="n">
         <v>7163079</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112327353</v>
+        <v>112327352</v>
       </c>
       <c r="B3" t="n">
         <v>77650</v>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>641135</v>
+        <v>641114</v>
       </c>
       <c r="R3" t="n">
-        <v>7163078</v>
+        <v>7163079</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112327346</v>
+        <v>112327584</v>
       </c>
       <c r="B4" t="n">
-        <v>77650</v>
+        <v>96652</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -906,25 +906,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>641252</v>
+        <v>641245</v>
       </c>
       <c r="R4" t="n">
         <v>7163079</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112327585</v>
+        <v>112327128</v>
       </c>
       <c r="B5" t="n">
-        <v>96652</v>
+        <v>95701</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1017,21 +1017,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219790</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>641127</v>
+        <v>641144</v>
       </c>
       <c r="R5" t="n">
-        <v>7163079</v>
+        <v>7163080</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112327043</v>
+        <v>112327585</v>
       </c>
       <c r="B6" t="n">
-        <v>96755</v>
+        <v>96652</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1124,21 +1124,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>219790</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>641243</v>
+        <v>641127</v>
       </c>
       <c r="R6" t="n">
         <v>7163079</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112327128</v>
+        <v>112327586</v>
       </c>
       <c r="B7" t="n">
-        <v>95701</v>
+        <v>96652</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1231,21 +1231,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>219790</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>641144</v>
+        <v>641118</v>
       </c>
       <c r="R7" t="n">
-        <v>7163080</v>
+        <v>7163079</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112327587</v>
+        <v>112327588</v>
       </c>
       <c r="B8" t="n">
         <v>96652</v>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>641128</v>
+        <v>641133</v>
       </c>
       <c r="R8" t="n">
         <v>7163079</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112327586</v>
+        <v>112327353</v>
       </c>
       <c r="B9" t="n">
-        <v>96652</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1441,25 +1441,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>641118</v>
+        <v>641135</v>
       </c>
       <c r="R9" t="n">
-        <v>7163079</v>
+        <v>7163078</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112327584</v>
+        <v>112327346</v>
       </c>
       <c r="B10" t="n">
-        <v>96652</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1548,25 +1548,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>641245</v>
+        <v>641252</v>
       </c>
       <c r="R10" t="n">
         <v>7163079</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112327352</v>
+        <v>112327587</v>
       </c>
       <c r="B11" t="n">
-        <v>77650</v>
+        <v>96652</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1655,25 +1655,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>641114</v>
+        <v>641128</v>
       </c>
       <c r="R11" t="n">
         <v>7163079</v>

--- a/artfynd/A 5617-2019.xlsx
+++ b/artfynd/A 5617-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112327043</v>
+        <v>112327352</v>
       </c>
       <c r="B2" t="n">
-        <v>96755</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>641243</v>
+        <v>641114</v>
       </c>
       <c r="R2" t="n">
         <v>7163079</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112327352</v>
+        <v>112327584</v>
       </c>
       <c r="B3" t="n">
-        <v>77650</v>
+        <v>96652</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -799,25 +799,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>641114</v>
+        <v>641245</v>
       </c>
       <c r="R3" t="n">
         <v>7163079</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112327584</v>
+        <v>112327043</v>
       </c>
       <c r="B4" t="n">
-        <v>96652</v>
+        <v>96755</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -910,21 +910,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>641245</v>
+        <v>641243</v>
       </c>
       <c r="R4" t="n">
         <v>7163079</v>

--- a/artfynd/A 5617-2019.xlsx
+++ b/artfynd/A 5617-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112327352</v>
+        <v>112327128</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>95701</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>641114</v>
+        <v>641144</v>
       </c>
       <c r="R2" t="n">
-        <v>7163079</v>
+        <v>7163080</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112327584</v>
+        <v>112327585</v>
       </c>
       <c r="B3" t="n">
         <v>96652</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>641245</v>
+        <v>641127</v>
       </c>
       <c r="R3" t="n">
         <v>7163079</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112327043</v>
+        <v>112327352</v>
       </c>
       <c r="B4" t="n">
-        <v>96755</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -906,25 +906,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>641243</v>
+        <v>641114</v>
       </c>
       <c r="R4" t="n">
         <v>7163079</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112327128</v>
+        <v>112327346</v>
       </c>
       <c r="B5" t="n">
-        <v>95701</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1013,25 +1013,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>641144</v>
+        <v>641252</v>
       </c>
       <c r="R5" t="n">
-        <v>7163080</v>
+        <v>7163079</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112327585</v>
+        <v>112327043</v>
       </c>
       <c r="B6" t="n">
-        <v>96652</v>
+        <v>96755</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1124,21 +1124,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>641127</v>
+        <v>641243</v>
       </c>
       <c r="R6" t="n">
         <v>7163079</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112327586</v>
+        <v>112327587</v>
       </c>
       <c r="B7" t="n">
         <v>96652</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>641118</v>
+        <v>641128</v>
       </c>
       <c r="R7" t="n">
         <v>7163079</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112327588</v>
+        <v>112327353</v>
       </c>
       <c r="B8" t="n">
-        <v>96652</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1334,25 +1334,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>641133</v>
+        <v>641135</v>
       </c>
       <c r="R8" t="n">
-        <v>7163079</v>
+        <v>7163078</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112327353</v>
+        <v>112327584</v>
       </c>
       <c r="B9" t="n">
-        <v>77650</v>
+        <v>96652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1441,25 +1441,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>641135</v>
+        <v>641245</v>
       </c>
       <c r="R9" t="n">
-        <v>7163078</v>
+        <v>7163079</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112327346</v>
+        <v>112327588</v>
       </c>
       <c r="B10" t="n">
-        <v>77650</v>
+        <v>96652</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1548,25 +1548,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>641252</v>
+        <v>641133</v>
       </c>
       <c r="R10" t="n">
         <v>7163079</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112327587</v>
+        <v>112327586</v>
       </c>
       <c r="B11" t="n">
         <v>96652</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>641128</v>
+        <v>641118</v>
       </c>
       <c r="R11" t="n">
         <v>7163079</v>
